--- a/PackageTemplate_Inputs.xlsx
+++ b/PackageTemplate_Inputs.xlsx
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Package name</t>
+    <t xml:space="preserve">Package name *</t>
   </si>
   <si>
     <t xml:space="preserve">Short description</t>
@@ -47,14 +47,17 @@
     <t xml:space="preserve">Package URL</t>
   </si>
   <si>
-    <t xml:space="preserve">test_package_test</t>
+    <t xml:space="preserve">my_package</t>
   </si>
   <si>
-    <t xml:space="preserve">A test package with Dessia SDK Tools.</t>
+    <t xml:space="preserve">A python package with Dessia SDK Tools.</t>
   </si>
   <si>
     <t xml:space="preserve">dessia_common&gt;=0.18.0, volmdlr&gt;=0.18.0,
 plot_data&gt;=0.26.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=3.9</t>
   </si>
   <si>
     <t xml:space="preserve">Operations-Team</t>
@@ -63,7 +66,7 @@
     <t xml:space="preserve">support@dessia.io</t>
   </si>
   <si>
-    <t xml:space="preserve">gitlab.com:Soumiya_Bendjebla</t>
+    <t xml:space="preserve">Package name</t>
   </si>
   <si>
     <t xml:space="preserve">This is the unique name of your Python package. It should be all lowercase and use underscores to separate words (e.g., my_package).</t>
@@ -252,13 +255,14 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.59"/>
@@ -312,23 +316,25 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -28361,11 +28367,11 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="192.88"/>
@@ -28373,10 +28379,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -28407,7 +28413,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -28438,7 +28444,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -28469,7 +28475,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -28500,7 +28506,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -28531,7 +28537,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -28562,7 +28568,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -28593,7 +28599,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>

--- a/PackageTemplate_Inputs.xlsx
+++ b/PackageTemplate_Inputs.xlsx
@@ -256,10 +256,10 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
@@ -268,7 +268,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28371,7 +28371,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="192.88"/>
